--- a/Data/Processed/Angiosperms/missing_powo_ipni/Onagraceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Onagraceae.xlsx
@@ -4447,7 +4447,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -10343,7 +10343,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -11091,7 +11091,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -11101,7 +11101,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t xml:space="preserve">Candollea 8: 25. 1940 </t>
+          <t>Candollea 8: 25. 1940</t>
         </is>
       </c>
       <c r="J193" t="b">
@@ -11169,7 +11169,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publ. Field Mus. Nat. Hist., Bot. Ser. 13, pt. 4: 556. 1941 </t>
+          <t>Publ. Field Mus. Nat. Hist., Bot. Ser. 13, pt. 4: 556. 1941</t>
         </is>
       </c>
       <c r="J194" t="b">
@@ -11247,7 +11247,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Candollea 8: 24. 1940 </t>
+          <t>Candollea 8: 24. 1940</t>
         </is>
       </c>
       <c r="J195" t="b">
@@ -11325,7 +11325,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -11335,7 +11335,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publ. Field Mus. Nat. Hist., Bot. Ser. 13, pt. 4: 566. 1941 </t>
+          <t>Publ. Field Mus. Nat. Hist., Bot. Ser. 13, pt. 4: 566. 1941</t>
         </is>
       </c>
       <c r="J196" t="b">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -11413,7 +11413,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brittonia 16: 229. 1964 </t>
+          <t>Brittonia 16: 229. 1964</t>
         </is>
       </c>
       <c r="J197" t="b">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -11491,7 +11491,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 4: 226. 1907 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 4: 226. 1907</t>
         </is>
       </c>
       <c r="J198" t="b">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -11569,7 +11569,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kurtziana 2: 185. 1965 </t>
+          <t>Kurtziana 2: 185. 1965</t>
         </is>
       </c>
       <c r="J199" t="b">
@@ -11637,7 +11637,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -11647,7 +11647,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kurtziana 2: 188. 1965 </t>
+          <t>Kurtziana 2: 188. 1965</t>
         </is>
       </c>
       <c r="J200" t="b">
@@ -11715,7 +11715,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -11725,7 +11725,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kurtziana 2: 196. 1965 </t>
+          <t>Kurtziana 2: 196. 1965</t>
         </is>
       </c>
       <c r="J201" t="b">
